--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -9,19 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">Лист1!$K$32:$K$43</definedName>
     <definedName name="_xlchart.1" hidden="1">Лист1!$L$32:$L$43</definedName>
-    <definedName name="_xlchart.2" hidden="1">Лист1!$K$32:$K$43</definedName>
-    <definedName name="_xlchart.3" hidden="1">Лист1!$L$32:$L$43</definedName>
-    <definedName name="_xlchart.4" hidden="1">Лист1!$K$32:$K$43</definedName>
-    <definedName name="_xlchart.5" hidden="1">Лист1!$L$32:$L$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>xi</t>
   </si>
@@ -174,6 +169,21 @@
   </si>
   <si>
     <t>x12</t>
+  </si>
+  <si>
+    <t>m*</t>
+  </si>
+  <si>
+    <t>мода</t>
+  </si>
+  <si>
+    <t>41,5; 41,6</t>
+  </si>
+  <si>
+    <t>медиана</t>
+  </si>
+  <si>
+    <t>Среднее</t>
   </si>
 </sst>
 </file>
@@ -273,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -319,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3381,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,7 +3835,7 @@
         <v>41.241686335602026</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ref="E14:K14" si="5">D14+$B$13</f>
+        <f t="shared" ref="E14:I14" si="5">D14+$B$13</f>
         <v>41.355581780802702</v>
       </c>
       <c r="F14" s="3">
@@ -4281,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D33" s="15"/>
       <c r="E33" s="4">
         <f>(B16+C16+D16+E16+F16+G16+H16+I16+J16+K16)/30</f>
@@ -4297,7 +4310,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D34" s="15"/>
       <c r="E34" s="12">
         <f>(B16+C16+D16+E16+F16+G16+H16+I16+J16+K16+L16)/30</f>
@@ -4313,7 +4326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D35" s="15"/>
       <c r="K35" s="13" t="s">
         <v>35</v>
@@ -4322,7 +4335,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D36" s="15"/>
       <c r="K36" s="13" t="s">
         <v>36</v>
@@ -4331,7 +4344,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K37" s="13" t="s">
         <v>37</v>
       </c>
@@ -4339,7 +4352,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K38" s="4" t="s">
         <v>38</v>
       </c>
@@ -4347,7 +4360,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K39" s="13" t="s">
         <v>39</v>
       </c>
@@ -4355,7 +4368,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K40" s="4" t="s">
         <v>40</v>
       </c>
@@ -4363,7 +4376,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K41" s="4" t="s">
         <v>41</v>
       </c>
@@ -4371,7 +4384,20 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <f>(B5*B6+C5*C6+D5*D6+E5*E6+F5*F6+G5*G6+H5*H6+I5*I6+J5*J6+K5*K6+L5*L6+M5*M6+N5*N6)/30</f>
+        <v>41.543333333333329</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
       <c r="K42" s="4" t="s">
         <v>42</v>
       </c>
@@ -4379,12 +4405,35 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43">
+        <v>41.5</v>
+      </c>
       <c r="K43" s="12" t="s">
         <v>43</v>
       </c>
       <c r="L43" s="12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <f>(B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5)/13</f>
+        <v>41.607692307692304</v>
       </c>
     </row>
   </sheetData>
@@ -4395,111 +4444,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>38</v>
-      </c>
-      <c r="B1">
-        <v>60</v>
-      </c>
-      <c r="C1">
-        <v>41</v>
-      </c>
-      <c r="D1">
-        <v>51</v>
-      </c>
-      <c r="E1">
-        <v>33</v>
-      </c>
-      <c r="F1">
-        <v>42</v>
-      </c>
-      <c r="G1">
-        <v>45</v>
-      </c>
-      <c r="H1">
-        <v>21</v>
-      </c>
-      <c r="I1">
-        <v>53</v>
-      </c>
-      <c r="J1">
-        <v>60</v>
-      </c>
-      <c r="K1">
-        <v>68</v>
-      </c>
-      <c r="L1">
-        <v>52</v>
-      </c>
-      <c r="M1">
-        <v>47</v>
-      </c>
-      <c r="N1">
-        <v>46</v>
-      </c>
-      <c r="O1">
-        <v>49</v>
-      </c>
-      <c r="P1">
-        <v>49</v>
-      </c>
-      <c r="Q1">
-        <v>14</v>
-      </c>
-      <c r="R1">
-        <v>57</v>
-      </c>
-      <c r="S1">
-        <v>54</v>
-      </c>
-      <c r="T1">
-        <v>59</v>
-      </c>
-      <c r="U1">
-        <v>11</v>
-      </c>
-      <c r="V1">
-        <v>47</v>
-      </c>
-      <c r="W1">
-        <v>28</v>
-      </c>
-      <c r="X1">
-        <v>48</v>
-      </c>
-      <c r="Y1">
-        <v>58</v>
-      </c>
-      <c r="Z1">
-        <v>32</v>
-      </c>
-      <c r="AA1">
-        <v>42</v>
-      </c>
-      <c r="AB1">
-        <v>58</v>
-      </c>
-      <c r="AC1">
-        <v>61</v>
-      </c>
-      <c r="AD1">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.Volkov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\D.Volkov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>xi</t>
   </si>
@@ -184,6 +184,45 @@
   </si>
   <si>
     <t>Среднее</t>
+  </si>
+  <si>
+    <t>d*</t>
+  </si>
+  <si>
+    <t>коеффициент</t>
+  </si>
+  <si>
+    <t>абс. Отклонение</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>sqrtD</t>
+  </si>
+  <si>
+    <t>д. интервал 0.95</t>
+  </si>
+  <si>
+    <t>д. интервал 0.99</t>
+  </si>
+  <si>
+    <t>&lt;  a  &lt;</t>
+  </si>
+  <si>
+    <t>&lt; a &lt;</t>
+  </si>
+  <si>
+    <t>д. интервал 0.90</t>
+  </si>
+  <si>
+    <t>40,36-42,72</t>
+  </si>
+  <si>
+    <t>40,67-42,42</t>
+  </si>
+  <si>
+    <t>40,81-42,28</t>
   </si>
 </sst>
 </file>
@@ -283,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -332,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,6 +783,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1285,6 +1328,334 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Интервалы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$D$58:$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40,36-42,72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40,67-42,42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40,81-42,28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$58:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7856-4741-BD22-C3583BB4367A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1426572624"/>
+        <c:axId val="1426575536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1426572624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1426575536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1426575536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1426572624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent2">
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1405,6 +1776,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -2928,20 +3339,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581704</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>105453</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:rowOff>151380</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3128,7 +4035,395 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>51708</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>124557</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="520212" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15584365" y="3993173"/>
+          <a:ext cx="520212" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>40,36</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>225668</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115765</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="367812" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15685476" y="4116265"/>
+          <a:ext cx="367812" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>218342</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>159727</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="520212" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21835951" y="3969727"/>
+          <a:ext cx="520212" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>72</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>319453</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92319</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="367812" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21937062" y="4092819"/>
+          <a:ext cx="367812" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04011</cdr:x>
+      <cdr:y>0.0711</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.04053</cdr:x>
+      <cdr:y>0.89525</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="265157" y="203287"/>
+          <a:ext cx="2825" cy="2356403"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.97991</cdr:x>
+      <cdr:y>0.0711</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98033</cdr:x>
+      <cdr:y>0.89525</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Прямая соединительная линия 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="6478388" y="203288"/>
+          <a:ext cx="2825" cy="2356403"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3394,10 +4689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,6 +5701,13 @@
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <f>((((B5-C42)^2*B6)+((C5-C42)^2*C6)+((D5-C42)^2*D6)+((E5-C42)^2*E6)+((F5-C42)^2*F6)+((G5-C42)^2*G6)+((H5-C42)^2*H6)+((I5-C42)^2*I6)+((J5-C42)^2*J6)+((K5-C42)^2*K6)+((L5-C42)^2*L6)+((M5-C42)^2*M6)+((N5-C42)^2*N6))^2)/30</f>
+        <v>0.33573867037036997</v>
+      </c>
       <c r="E43" t="s">
         <v>47</v>
       </c>
@@ -4420,6 +5722,13 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <f>SQRT(C43)</f>
+        <v>0.57942960777852037</v>
+      </c>
       <c r="E44" t="s">
         <v>5</v>
       </c>
@@ -4432,8 +5741,107 @@
         <v>48</v>
       </c>
       <c r="F45">
-        <f>(B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5)/13</f>
-        <v>41.607692307692304</v>
+        <f>(B5*B6+C5*C6+D5*D6+E5*E6+F5*F6+G5*G6+H5*H6+I5*I6+J5*J6+K5*K6+L5*L6+M5*M6+N5*N6)/30</f>
+        <v>41.543333333333329</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <f>(C44/29)*100</f>
+        <v>1.9980331302707599</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <f>((B5*B6-F45)+(C5*C6-F45)+(D5*D6-F45)+(E5*E6-F45)+(F5*F6-F45)+(G5*G6-F45)+(H5*H6-F45)+(I5*I6-F45)+(J5*J6-F45)+(K5*K6-F45)+(L5*L6-F45)+(M5*M6-F45)+(N5*N6-F45))/30</f>
+        <v>23.541222222222224</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50">
+        <f>SQRT(F45)</f>
+        <v>6.4454118047905462</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="21">
+        <f>C42-((2.7563*F50)/(30^1/2))</f>
+        <v>40.358967429497049</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="21">
+        <f>C42+((2.75638590367033*F50)/(30^1/2))</f>
+        <v>42.72773614947166</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="21">
+        <f>C42-((2.0452296421327*F50)/(30^1/2))</f>
+        <v>40.664510181406023</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="21">
+        <f>C42+((2.0452296421327*F50)/(30^1/2))</f>
+        <v>42.422156485260636</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="21">
+        <f>C42-((1.69912702653349*F50)/(30^1/2))</f>
+        <v>40.813228440356156</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="21">
+        <f>C42+((1.69912702653349*F50)/(30^1/2))</f>
+        <v>42.273438226310503</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
